--- a/biology/Médecine/Amin_El_Maalouf/Amin_El_Maalouf.xlsx
+++ b/biology/Médecine/Amin_El_Maalouf/Amin_El_Maalouf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amin El Maalouf (arabe : أمين المعلوف [amīn al maʿlūf]), né en 1871 à Choueifat et décédé le 21 janvier 1943 au Caire, est un médecin libanais, scientifique spécialiste des animaux et des plantes.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amin El Maalouf (Amin “Pacha” bin Fahd bin Âsâad El Maâlouf) est diplômé de l'université américaine de Beyrouth. Médecin dans l’armée égyptienne quand celle-ci prend part à la bataille d’Omdourman et à l’invasion de Bahr el-Ghazal. 
 Envoyé par le Croissant-Rouge égyptien à Istanbul où il assiste à la guerre des Balkans. Quand éclate la Révolte arabe, il part pour Djeddah où il est nommé directeur de la santé. 
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Glossaire des animaux
 Glossaire des plantes
